--- a/lessons/data/formatted_data.xlsx
+++ b/lessons/data/formatted_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="352">
   <si>
     <t>StationID</t>
   </si>
@@ -246,9 +246,6 @@
   </si>
   <si>
     <t>B13-8279</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>B13-8280</t>
@@ -1118,8 +1115,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1436,11 +1434,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F347"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="F309" sqref="F309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1458,7 +1459,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1478,7 +1479,7 @@
       <c r="E2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>0.16</v>
       </c>
     </row>
@@ -1498,7 +1499,7 @@
       <c r="E3">
         <v>0.72</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0.31</v>
       </c>
     </row>
@@ -1518,7 +1519,7 @@
       <c r="E4">
         <v>1.71</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1538,7 +1539,7 @@
       <c r="E5">
         <v>1.03</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1558,7 +1559,7 @@
       <c r="E6">
         <v>1.51</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1578,7 +1579,7 @@
       <c r="E7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1598,7 +1599,7 @@
       <c r="E8">
         <v>1.65</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1618,7 +1619,7 @@
       <c r="E9">
         <v>1.51</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1638,7 +1639,7 @@
       <c r="E10">
         <v>0.9</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>0.88</v>
       </c>
     </row>
@@ -1658,7 +1659,7 @@
       <c r="E11">
         <v>0.93</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1678,7 +1679,7 @@
       <c r="E12">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1698,7 +1699,7 @@
       <c r="E13">
         <v>1.86</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1718,7 +1719,7 @@
       <c r="E14">
         <v>0.47</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1738,7 +1739,7 @@
       <c r="E15">
         <v>1.44</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1758,7 +1759,7 @@
       <c r="E16">
         <v>2.62</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1778,7 +1779,7 @@
       <c r="E17">
         <v>0.27</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1798,7 +1799,7 @@
       <c r="E18">
         <v>0.99</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1818,7 +1819,7 @@
       <c r="E19">
         <v>0.71</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1838,7 +1839,7 @@
       <c r="E20">
         <v>2.2599999999999998</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1858,7 +1859,7 @@
       <c r="E21">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1878,7 +1879,7 @@
       <c r="E22">
         <v>1.5</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1898,7 +1899,7 @@
       <c r="E23">
         <v>1.58</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>1.68</v>
       </c>
     </row>
@@ -1918,7 +1919,7 @@
       <c r="E24">
         <v>1.52</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1938,7 +1939,7 @@
       <c r="E25">
         <v>0.02</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1958,7 +1959,7 @@
       <c r="E26">
         <v>0.67</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1978,7 +1979,7 @@
       <c r="E27">
         <v>0.5</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1998,7 +1999,7 @@
       <c r="E28">
         <v>1.3</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2018,7 +2019,7 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2038,7 +2039,7 @@
       <c r="E30">
         <v>0.7</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2058,7 +2059,7 @@
       <c r="E31">
         <v>0.16</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>6.44</v>
       </c>
     </row>
@@ -2078,7 +2079,7 @@
       <c r="E32">
         <v>0.99</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2098,7 +2099,7 @@
       <c r="E33">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2118,7 +2119,7 @@
       <c r="E34">
         <v>0.3</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2138,7 +2139,7 @@
       <c r="E35">
         <v>0.22</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2158,7 +2159,7 @@
       <c r="E36">
         <v>0.4</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2178,7 +2179,7 @@
       <c r="E37">
         <v>1.82</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2198,7 +2199,7 @@
       <c r="E38">
         <v>0.91</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2218,7 +2219,7 @@
       <c r="E39">
         <v>2.37</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>3.04</v>
       </c>
     </row>
@@ -2238,7 +2239,7 @@
       <c r="E40">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>0.53</v>
       </c>
     </row>
@@ -2258,7 +2259,7 @@
       <c r="E41">
         <v>1.08</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <v>3.55</v>
       </c>
     </row>
@@ -2278,7 +2279,7 @@
       <c r="E42">
         <v>1.31</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="1">
         <v>1.99</v>
       </c>
     </row>
@@ -2298,7 +2299,7 @@
       <c r="E43">
         <v>1.61</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2318,7 +2319,7 @@
       <c r="E44">
         <v>1</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2338,7 +2339,7 @@
       <c r="E45">
         <v>2.99</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <v>2.08</v>
       </c>
     </row>
@@ -2358,7 +2359,7 @@
       <c r="E46">
         <v>6.39</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2378,7 +2379,7 @@
       <c r="E47">
         <v>2.09</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2398,7 +2399,7 @@
       <c r="E48">
         <v>2.42</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2418,7 +2419,7 @@
       <c r="E49">
         <v>1.88</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="1">
         <v>0.7</v>
       </c>
     </row>
@@ -2438,7 +2439,7 @@
       <c r="E50">
         <v>1.62</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="1">
         <v>0.43</v>
       </c>
     </row>
@@ -2458,7 +2459,7 @@
       <c r="E51">
         <v>1.9</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="1">
         <v>0.43</v>
       </c>
     </row>
@@ -2478,7 +2479,7 @@
       <c r="E52">
         <v>0.31</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="1">
         <v>0.34</v>
       </c>
     </row>
@@ -2498,7 +2499,7 @@
       <c r="E53">
         <v>0.17</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="1">
         <v>0.3</v>
       </c>
     </row>
@@ -2518,7 +2519,7 @@
       <c r="E54">
         <v>0.3</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="1">
         <v>0.31</v>
       </c>
     </row>
@@ -2538,7 +2539,7 @@
       <c r="E55">
         <v>0.61</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="1">
         <v>0.7</v>
       </c>
     </row>
@@ -2558,7 +2559,7 @@
       <c r="E56">
         <v>2.35</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="1">
         <v>0.44</v>
       </c>
     </row>
@@ -2578,7 +2579,7 @@
       <c r="E57">
         <v>2.17</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="1">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -2598,7 +2599,7 @@
       <c r="E58">
         <v>3.25</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="1">
         <v>0.73</v>
       </c>
     </row>
@@ -2618,7 +2619,7 @@
       <c r="E59">
         <v>1</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="1">
         <v>0.41</v>
       </c>
     </row>
@@ -2638,7 +2639,7 @@
       <c r="E60">
         <v>0.96</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="1">
         <v>0.39</v>
       </c>
     </row>
@@ -2658,7 +2659,7 @@
       <c r="E61">
         <v>1.2</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="1">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -2678,7 +2679,7 @@
       <c r="E62">
         <v>0.89</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2698,7 +2699,7 @@
       <c r="E63">
         <v>0.64</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="1">
         <v>0.08</v>
       </c>
     </row>
@@ -2718,7 +2719,7 @@
       <c r="E64">
         <v>0.06</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2738,7 +2739,7 @@
       <c r="E65">
         <v>1.33</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2758,7 +2759,7 @@
       <c r="E66">
         <v>1.35</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2778,7 +2779,7 @@
       <c r="E67">
         <v>1.88</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="1">
         <v>0.21</v>
       </c>
     </row>
@@ -2798,7 +2799,7 @@
       <c r="E68">
         <v>1.47</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="1">
         <v>6.37</v>
       </c>
     </row>
@@ -2818,13 +2819,10 @@
       <c r="E69">
         <v>0.628</v>
       </c>
-      <c r="F69" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>6</v>
@@ -2838,13 +2836,13 @@
       <c r="E70">
         <v>0.75</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="1">
         <v>0.25</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71">
         <v>1.8288</v>
@@ -2858,13 +2856,13 @@
       <c r="E71">
         <v>0.98</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72">
         <v>0.91439999999999999</v>
@@ -2878,13 +2876,13 @@
       <c r="E72">
         <v>0.81799999999999995</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73">
         <v>5.4863999999999997</v>
@@ -2898,13 +2896,13 @@
       <c r="E73">
         <v>2.5299999999999998</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="1">
         <v>0.84</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74">
         <v>6.0960000000000001</v>
@@ -2918,13 +2916,13 @@
       <c r="E74">
         <v>1.6</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="1">
         <v>0.23</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75">
         <v>5.7911999999999999</v>
@@ -2938,13 +2936,13 @@
       <c r="E75">
         <v>1.97</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="1">
         <v>0.12</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>2.7431999999999999</v>
@@ -2958,13 +2956,10 @@
       <c r="E76">
         <v>0.157</v>
       </c>
-      <c r="F76" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77">
         <v>2.4384000000000001</v>
@@ -2978,13 +2973,10 @@
       <c r="E77">
         <v>0.58199999999999996</v>
       </c>
-      <c r="F77" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78">
         <v>1.524</v>
@@ -2998,13 +2990,10 @@
       <c r="E78">
         <v>0.183</v>
       </c>
-      <c r="F78" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>25</v>
@@ -3018,13 +3007,13 @@
       <c r="E79">
         <v>1.51</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B80">
         <v>24</v>
@@ -3038,13 +3027,13 @@
       <c r="E80">
         <v>2.15</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B81">
         <v>3</v>
@@ -3058,13 +3047,13 @@
       <c r="E81">
         <v>1.9</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B82">
         <v>23</v>
@@ -3078,13 +3067,13 @@
       <c r="E82">
         <v>1.79</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83">
         <v>14</v>
@@ -3098,13 +3087,13 @@
       <c r="E83">
         <v>1.7</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>15</v>
@@ -3118,13 +3107,13 @@
       <c r="E84">
         <v>2.0299999999999998</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="1">
         <v>1.44</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B85">
         <v>27</v>
@@ -3138,13 +3127,13 @@
       <c r="E85">
         <v>1.79</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B86">
         <v>18</v>
@@ -3158,13 +3147,13 @@
       <c r="E86">
         <v>1.68</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B87">
         <v>12</v>
@@ -3178,13 +3167,13 @@
       <c r="E87">
         <v>1.07</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="1">
         <v>0.96699999999999997</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B88">
         <v>4.8768000000000002</v>
@@ -3198,13 +3187,10 @@
       <c r="E88">
         <v>1.49</v>
       </c>
-      <c r="F88" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B89">
         <v>21</v>
@@ -3218,13 +3204,13 @@
       <c r="E89">
         <v>1.51</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B90">
         <v>14</v>
@@ -3238,13 +3224,13 @@
       <c r="E90">
         <v>1.25</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B91">
         <v>11</v>
@@ -3258,13 +3244,13 @@
       <c r="E91">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B92">
         <v>5.4863999999999997</v>
@@ -3278,13 +3264,13 @@
       <c r="E92">
         <v>0.498</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="1">
         <v>0.13600000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B93">
         <v>15</v>
@@ -3298,13 +3284,13 @@
       <c r="E93">
         <v>1.7</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B94">
         <v>14.020799999999999</v>
@@ -3318,13 +3304,10 @@
       <c r="E94">
         <v>0.79200000000000004</v>
       </c>
-      <c r="F94" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B95">
         <v>18</v>
@@ -3338,13 +3321,13 @@
       <c r="E95">
         <v>1.35</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>10</v>
@@ -3358,13 +3341,13 @@
       <c r="E96">
         <v>1.01</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>27</v>
@@ -3378,13 +3361,13 @@
       <c r="E97">
         <v>1.65</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B98">
         <v>14</v>
@@ -3398,13 +3381,13 @@
       <c r="E98">
         <v>1.49</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>12</v>
@@ -3418,13 +3401,13 @@
       <c r="E99">
         <v>1.26</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>11</v>
@@ -3438,13 +3421,13 @@
       <c r="E100">
         <v>1.17</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -3458,13 +3441,13 @@
       <c r="E101">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>10</v>
@@ -3478,13 +3461,13 @@
       <c r="E102">
         <v>0.92600000000000005</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>19</v>
@@ -3498,13 +3481,13 @@
       <c r="E103">
         <v>1.32</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>10</v>
@@ -3518,13 +3501,13 @@
       <c r="E104">
         <v>0.84599999999999997</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="1">
         <v>0.66</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B105">
         <v>20</v>
@@ -3538,13 +3521,13 @@
       <c r="E105">
         <v>0.82</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B106">
         <v>15</v>
@@ -3558,13 +3541,13 @@
       <c r="E106">
         <v>0.89</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B107">
         <v>16</v>
@@ -3578,13 +3561,13 @@
       <c r="E107">
         <v>1.22</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B108">
         <v>3</v>
@@ -3598,13 +3581,13 @@
       <c r="E108">
         <v>0.53</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B109">
         <v>17</v>
@@ -3618,13 +3601,13 @@
       <c r="E109">
         <v>0.89</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B110">
         <v>3.6576</v>
@@ -3638,13 +3621,10 @@
       <c r="E110">
         <v>0.84299999999999997</v>
       </c>
-      <c r="F110" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B111">
         <v>18</v>
@@ -3658,13 +3638,13 @@
       <c r="E111">
         <v>1.18</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B112">
         <v>9</v>
@@ -3678,13 +3658,13 @@
       <c r="E112">
         <v>0.82899999999999996</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="1">
         <v>5.2</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B113">
         <v>4</v>
@@ -3698,13 +3678,13 @@
       <c r="E113">
         <v>0.51800000000000002</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B114">
         <v>18</v>
@@ -3718,13 +3698,13 @@
       <c r="E114">
         <v>1.21</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B115">
         <v>6.0960000000000001</v>
@@ -3738,13 +3718,10 @@
       <c r="E115">
         <v>1.91</v>
       </c>
-      <c r="F115" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B116">
         <v>18</v>
@@ -3758,13 +3735,13 @@
       <c r="E116">
         <v>2.21</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B117">
         <v>5</v>
@@ -3778,13 +3755,13 @@
       <c r="E117">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="1">
         <v>2.15</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B118">
         <v>5.7911999999999999</v>
@@ -3798,13 +3775,10 @@
       <c r="E118">
         <v>2.06</v>
       </c>
-      <c r="F118" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B119">
         <v>2.7431999999999999</v>
@@ -3818,13 +3792,10 @@
       <c r="E119">
         <v>2.57</v>
       </c>
-      <c r="F119" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B120">
         <v>6.0960000000000001</v>
@@ -3838,13 +3809,10 @@
       <c r="E120">
         <v>4.09</v>
       </c>
-      <c r="F120" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B121">
         <v>2.4384000000000001</v>
@@ -3858,13 +3826,10 @@
       <c r="E121">
         <v>3.23</v>
       </c>
-      <c r="F121" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B122">
         <v>15</v>
@@ -3878,13 +3843,13 @@
       <c r="E122">
         <v>1.67</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B123">
         <v>4</v>
@@ -3898,13 +3863,13 @@
       <c r="E123">
         <v>2.39</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B124">
         <v>19</v>
@@ -3918,13 +3883,13 @@
       <c r="E124">
         <v>1.72</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B125">
         <v>14</v>
@@ -3938,13 +3903,13 @@
       <c r="E125">
         <v>3.1</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B126">
         <v>2.7431999999999999</v>
@@ -3958,13 +3923,10 @@
       <c r="E126">
         <v>3.2</v>
       </c>
-      <c r="F126" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B127">
         <v>5</v>
@@ -3978,13 +3940,13 @@
       <c r="E127">
         <v>1.86549437</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="1">
         <v>28.12</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B128">
         <v>5</v>
@@ -3998,13 +3960,13 @@
       <c r="E128">
         <v>1.05</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="1">
         <v>5.25</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B129">
         <v>2.1335999999999999</v>
@@ -4018,13 +3980,10 @@
       <c r="E129">
         <v>0.872</v>
       </c>
-      <c r="F129" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B130">
         <v>4</v>
@@ -4038,13 +3997,13 @@
       <c r="E130">
         <v>1.5661914459999999</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="1">
         <v>5.14</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -4058,13 +4017,13 @@
       <c r="E131">
         <v>1.59</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="1">
         <v>1.36</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B132">
         <v>0.91439999999999999</v>
@@ -4078,13 +4037,10 @@
       <c r="E132">
         <v>1.46E-2</v>
       </c>
-      <c r="F132" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B133">
         <v>1.8288</v>
@@ -4098,13 +4054,10 @@
       <c r="E133">
         <v>2.09</v>
       </c>
-      <c r="F133" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B134">
         <v>3</v>
@@ -4118,13 +4071,13 @@
       <c r="E134">
         <v>1.4581932769999999</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="1">
         <v>6.84</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B135">
         <v>4</v>
@@ -4138,13 +4091,13 @@
       <c r="E135">
         <v>1.85</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="1">
         <v>12.64</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B136">
         <v>2</v>
@@ -4158,13 +4111,13 @@
       <c r="E136">
         <v>1.89</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -4178,13 +4131,10 @@
       <c r="E137">
         <v>2.0699999999999998</v>
       </c>
-      <c r="F137" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B138">
         <v>280</v>
@@ -4198,13 +4148,13 @@
       <c r="E138">
         <v>0.61499999999999999</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B139">
         <v>320</v>
@@ -4218,13 +4168,13 @@
       <c r="E139">
         <v>1.08</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B140">
         <v>19</v>
@@ -4238,13 +4188,13 @@
       <c r="E140">
         <v>0.11700000000000001</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B141">
         <v>35</v>
@@ -4258,13 +4208,13 @@
       <c r="E141">
         <v>0.123</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B142">
         <v>648</v>
@@ -4278,13 +4228,13 @@
       <c r="E142">
         <v>1.74</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B143">
         <v>183</v>
@@ -4298,13 +4248,13 @@
       <c r="E143">
         <v>1.97</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B144">
         <v>58</v>
@@ -4318,13 +4268,13 @@
       <c r="E144">
         <v>0.33700000000000002</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B145">
         <v>154</v>
@@ -4338,13 +4288,13 @@
       <c r="E145">
         <v>0.38300000000000001</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B146">
         <v>346</v>
@@ -4358,13 +4308,13 @@
       <c r="E146">
         <v>0.84599999999999997</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B147">
         <v>277</v>
@@ -4378,13 +4328,13 @@
       <c r="E147">
         <v>1.59</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B148">
         <v>430</v>
@@ -4398,13 +4348,13 @@
       <c r="E148">
         <v>1.29</v>
       </c>
-      <c r="F148">
+      <c r="F148" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B149">
         <v>77</v>
@@ -4418,13 +4368,13 @@
       <c r="E149">
         <v>0.64</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B150">
         <v>372</v>
@@ -4438,13 +4388,13 @@
       <c r="E150">
         <v>1.72</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B151">
         <v>272</v>
@@ -4458,13 +4408,13 @@
       <c r="E151">
         <v>1.74</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B152">
         <v>525</v>
@@ -4478,13 +4428,13 @@
       <c r="E152">
         <v>1.62</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B153">
         <v>425</v>
@@ -4498,13 +4448,13 @@
       <c r="E153">
         <v>2.0299999999999998</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B154">
         <v>465</v>
@@ -4518,13 +4468,13 @@
       <c r="E154">
         <v>1.5</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B155">
         <v>457</v>
@@ -4538,13 +4488,13 @@
       <c r="E155">
         <v>1.73</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B156">
         <v>68</v>
@@ -4558,13 +4508,13 @@
       <c r="E156">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B157">
         <v>17</v>
@@ -4578,13 +4528,13 @@
       <c r="E157">
         <v>0.122</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B158">
         <v>942</v>
@@ -4598,13 +4548,13 @@
       <c r="E158">
         <v>0.435</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B159">
         <v>668</v>
@@ -4618,13 +4568,13 @@
       <c r="E159">
         <v>3.4</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B160">
         <v>83</v>
@@ -4638,13 +4588,13 @@
       <c r="E160">
         <v>0.80100000000000005</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B161">
         <v>275</v>
@@ -4658,13 +4608,13 @@
       <c r="E161">
         <v>1.36</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B162">
         <v>146</v>
@@ -4678,13 +4628,13 @@
       <c r="E162">
         <v>0.56599999999999995</v>
       </c>
-      <c r="F162">
+      <c r="F162" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B163">
         <v>527</v>
@@ -4698,13 +4648,13 @@
       <c r="E163">
         <v>1.9</v>
       </c>
-      <c r="F163">
+      <c r="F163" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B164">
         <v>23</v>
@@ -4718,13 +4668,13 @@
       <c r="E164">
         <v>0.123</v>
       </c>
-      <c r="F164">
+      <c r="F164" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B165">
         <v>607</v>
@@ -4738,13 +4688,13 @@
       <c r="E165">
         <v>3.38</v>
       </c>
-      <c r="F165">
+      <c r="F165" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B166">
         <v>244</v>
@@ -4758,13 +4708,13 @@
       <c r="E166">
         <v>2.85</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B167">
         <v>839</v>
@@ -4778,13 +4728,13 @@
       <c r="E167">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F167">
+      <c r="F167" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B168">
         <v>805</v>
@@ -4798,13 +4748,13 @@
       <c r="E168">
         <v>1.96</v>
       </c>
-      <c r="F168">
+      <c r="F168" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B169">
         <v>190</v>
@@ -4818,13 +4768,13 @@
       <c r="E169">
         <v>1.49</v>
       </c>
-      <c r="F169">
+      <c r="F169" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B170">
         <v>308</v>
@@ -4838,13 +4788,13 @@
       <c r="E170">
         <v>2.04</v>
       </c>
-      <c r="F170">
+      <c r="F170" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B171">
         <v>533</v>
@@ -4858,13 +4808,13 @@
       <c r="E171">
         <v>2.4</v>
       </c>
-      <c r="F171">
+      <c r="F171" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B172">
         <v>11</v>
@@ -4878,13 +4828,13 @@
       <c r="E172">
         <v>0.21</v>
       </c>
-      <c r="F172">
+      <c r="F172" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B173">
         <v>562</v>
@@ -4898,13 +4848,13 @@
       <c r="E173">
         <v>1.54</v>
       </c>
-      <c r="F173">
+      <c r="F173" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B174">
         <v>800</v>
@@ -4918,13 +4868,13 @@
       <c r="E174">
         <v>2.4900000000000002</v>
       </c>
-      <c r="F174">
+      <c r="F174" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B175">
         <v>32</v>
@@ -4938,13 +4888,13 @@
       <c r="E175">
         <v>1.74</v>
       </c>
-      <c r="F175">
+      <c r="F175" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B176">
         <v>251</v>
@@ -4958,13 +4908,13 @@
       <c r="E176">
         <v>0.90300000000000002</v>
       </c>
-      <c r="F176">
+      <c r="F176" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B177">
         <v>173</v>
@@ -4978,13 +4928,13 @@
       <c r="E177">
         <v>1.47</v>
       </c>
-      <c r="F177">
+      <c r="F177" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B178">
         <v>854</v>
@@ -4998,13 +4948,13 @@
       <c r="E178">
         <v>1.99</v>
       </c>
-      <c r="F178">
+      <c r="F178" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B179">
         <v>676</v>
@@ -5018,13 +4968,13 @@
       <c r="E179">
         <v>3.3</v>
       </c>
-      <c r="F179">
+      <c r="F179" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B180">
         <v>634</v>
@@ -5038,13 +4988,13 @@
       <c r="E180">
         <v>2.63</v>
       </c>
-      <c r="F180">
+      <c r="F180" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B181">
         <v>189</v>
@@ -5058,13 +5008,13 @@
       <c r="E181">
         <v>0.56899999999999995</v>
       </c>
-      <c r="F181">
+      <c r="F181" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B182">
         <v>62</v>
@@ -5078,13 +5028,13 @@
       <c r="E182">
         <v>0.59399999999999997</v>
       </c>
-      <c r="F182">
+      <c r="F182" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B183">
         <v>73</v>
@@ -5098,13 +5048,13 @@
       <c r="E183">
         <v>0.63400000000000001</v>
       </c>
-      <c r="F183">
+      <c r="F183" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B184">
         <v>484</v>
@@ -5118,13 +5068,13 @@
       <c r="E184">
         <v>2.4900000000000002</v>
       </c>
-      <c r="F184">
+      <c r="F184" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B185">
         <v>405</v>
@@ -5138,13 +5088,13 @@
       <c r="E185">
         <v>2.2200000000000002</v>
       </c>
-      <c r="F185">
+      <c r="F185" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B186">
         <v>788</v>
@@ -5158,13 +5108,13 @@
       <c r="E186">
         <v>2.92</v>
       </c>
-      <c r="F186">
+      <c r="F186" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B187">
         <v>85</v>
@@ -5178,13 +5128,13 @@
       <c r="E187">
         <v>0.92600000000000005</v>
       </c>
-      <c r="F187">
+      <c r="F187" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B188">
         <v>14</v>
@@ -5198,13 +5148,13 @@
       <c r="E188">
         <v>0.17299999999999999</v>
       </c>
-      <c r="F188">
+      <c r="F188" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B189">
         <v>256</v>
@@ -5218,13 +5168,13 @@
       <c r="E189">
         <v>1.99</v>
       </c>
-      <c r="F189">
+      <c r="F189" s="1">
         <v>0.16700000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B190">
         <v>181</v>
@@ -5238,13 +5188,13 @@
       <c r="E190">
         <v>1.91</v>
       </c>
-      <c r="F190">
+      <c r="F190" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B191">
         <v>62</v>
@@ -5258,13 +5208,13 @@
       <c r="E191">
         <v>0.77</v>
       </c>
-      <c r="F191">
+      <c r="F191" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B192">
         <v>62</v>
@@ -5278,13 +5228,13 @@
       <c r="E192">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F192">
+      <c r="F192" s="1">
         <v>0.24</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B193">
         <v>78</v>
@@ -5298,13 +5248,13 @@
       <c r="E193">
         <v>0.3</v>
       </c>
-      <c r="F193">
+      <c r="F193" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B194">
         <v>826</v>
@@ -5318,13 +5268,13 @@
       <c r="E194">
         <v>5.76</v>
       </c>
-      <c r="F194">
+      <c r="F194" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B195">
         <v>787</v>
@@ -5338,13 +5288,13 @@
       <c r="E195">
         <v>5.48</v>
       </c>
-      <c r="F195">
+      <c r="F195" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B196">
         <v>11</v>
@@ -5358,13 +5308,13 @@
       <c r="E196">
         <v>0</v>
       </c>
-      <c r="F196">
+      <c r="F196" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B197">
         <v>411</v>
@@ -5378,13 +5328,13 @@
       <c r="E197">
         <v>2.2400000000000002</v>
       </c>
-      <c r="F197">
+      <c r="F197" s="1">
         <v>0.152</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B198">
         <v>595</v>
@@ -5398,13 +5348,13 @@
       <c r="E198">
         <v>1.96</v>
       </c>
-      <c r="F198">
+      <c r="F198" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B199">
         <v>558</v>
@@ -5418,13 +5368,13 @@
       <c r="E199">
         <v>2.44</v>
       </c>
-      <c r="F199">
+      <c r="F199" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B200">
         <v>155</v>
@@ -5438,13 +5388,13 @@
       <c r="E200">
         <v>0.96</v>
       </c>
-      <c r="F200">
+      <c r="F200" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B201">
         <v>582</v>
@@ -5458,13 +5408,13 @@
       <c r="E201">
         <v>1.87</v>
       </c>
-      <c r="F201">
+      <c r="F201" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B202">
         <v>27</v>
@@ -5478,13 +5428,13 @@
       <c r="E202">
         <v>0.47</v>
       </c>
-      <c r="F202">
+      <c r="F202" s="1">
         <v>0.25600000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B203">
         <v>900</v>
@@ -5498,13 +5448,13 @@
       <c r="E203">
         <v>2.84</v>
       </c>
-      <c r="F203">
+      <c r="F203" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B204">
         <v>23</v>
@@ -5518,13 +5468,13 @@
       <c r="E204">
         <v>0.22</v>
       </c>
-      <c r="F204">
+      <c r="F204" s="1">
         <v>0.32800000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B205">
         <v>493</v>
@@ -5538,13 +5488,13 @@
       <c r="E205">
         <v>0.79</v>
       </c>
-      <c r="F205">
+      <c r="F205" s="1">
         <v>0.442</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B206">
         <v>50</v>
@@ -5558,13 +5508,13 @@
       <c r="E206">
         <v>0.9</v>
       </c>
-      <c r="F206">
+      <c r="F206" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B207">
         <v>432</v>
@@ -5578,13 +5528,13 @@
       <c r="E207">
         <v>2.72</v>
       </c>
-      <c r="F207">
+      <c r="F207" s="1">
         <v>0.17899999999999999</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B208">
         <v>41</v>
@@ -5598,13 +5548,13 @@
       <c r="E208">
         <v>0.48795180700000002</v>
       </c>
-      <c r="F208">
+      <c r="F208" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B209">
         <v>484</v>
@@ -5618,13 +5568,13 @@
       <c r="E209">
         <v>2.75</v>
       </c>
-      <c r="F209">
+      <c r="F209" s="1">
         <v>0.22</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B210">
         <v>16</v>
@@ -5638,13 +5588,13 @@
       <c r="E210">
         <v>0.15</v>
       </c>
-      <c r="F210">
+      <c r="F210" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B211">
         <v>60</v>
@@ -5658,13 +5608,13 @@
       <c r="E211">
         <v>0.91</v>
       </c>
-      <c r="F211">
+      <c r="F211" s="1">
         <v>0.30099999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B212">
         <v>345</v>
@@ -5678,13 +5628,13 @@
       <c r="E212">
         <v>1.83</v>
       </c>
-      <c r="F212">
+      <c r="F212" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B213">
         <v>55</v>
@@ -5698,13 +5648,13 @@
       <c r="E213">
         <v>0.72</v>
       </c>
-      <c r="F213">
+      <c r="F213" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B214">
         <v>359</v>
@@ -5718,13 +5668,13 @@
       <c r="E214">
         <v>2.0499999999999998</v>
       </c>
-      <c r="F214">
+      <c r="F214" s="1">
         <v>0.35</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B215">
         <v>227</v>
@@ -5738,13 +5688,13 @@
       <c r="E215">
         <v>1</v>
       </c>
-      <c r="F215">
+      <c r="F215" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B216">
         <v>142</v>
@@ -5758,13 +5708,13 @@
       <c r="E216">
         <v>0.6</v>
       </c>
-      <c r="F216">
+      <c r="F216" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B217">
         <v>47</v>
@@ -5778,13 +5728,13 @@
       <c r="E217">
         <v>0.65200000000000002</v>
       </c>
-      <c r="F217">
+      <c r="F217" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B218">
         <v>690</v>
@@ -5798,13 +5748,13 @@
       <c r="E218">
         <v>2.4</v>
       </c>
-      <c r="F218">
+      <c r="F218" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B219">
         <v>23</v>
@@ -5818,13 +5768,13 @@
       <c r="E219">
         <v>0.21</v>
       </c>
-      <c r="F219">
+      <c r="F219" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B220">
         <v>154</v>
@@ -5838,13 +5788,13 @@
       <c r="E220">
         <v>0.97</v>
       </c>
-      <c r="F220">
+      <c r="F220" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B221">
         <v>34</v>
@@ -5858,13 +5808,13 @@
       <c r="E221">
         <v>0.49</v>
       </c>
-      <c r="F221">
+      <c r="F221" s="1">
         <v>0.126</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B222">
         <v>63</v>
@@ -5878,13 +5828,13 @@
       <c r="E222">
         <v>1.22</v>
       </c>
-      <c r="F222">
+      <c r="F222" s="1">
         <v>0.39600000000000002</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B223">
         <v>38</v>
@@ -5898,13 +5848,13 @@
       <c r="E223">
         <v>0.35</v>
       </c>
-      <c r="F223">
+      <c r="F223" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B224">
         <v>750</v>
@@ -5918,13 +5868,13 @@
       <c r="E224">
         <v>2.4</v>
       </c>
-      <c r="F224">
+      <c r="F224" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B225">
         <v>43</v>
@@ -5938,13 +5888,13 @@
       <c r="E225">
         <v>0.68200000000000005</v>
       </c>
-      <c r="F225">
+      <c r="F225" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B226">
         <v>13</v>
@@ -5958,13 +5908,13 @@
       <c r="E226">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F226">
+      <c r="F226" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B227">
         <v>200</v>
@@ -5978,13 +5928,13 @@
       <c r="E227">
         <v>1.24</v>
       </c>
-      <c r="F227">
+      <c r="F227" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B228">
         <v>613</v>
@@ -5998,13 +5948,13 @@
       <c r="E228">
         <v>2.1</v>
       </c>
-      <c r="F228">
+      <c r="F228" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B229">
         <v>700</v>
@@ -6018,13 +5968,13 @@
       <c r="E229">
         <v>2.38</v>
       </c>
-      <c r="F229">
+      <c r="F229" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B230">
         <v>710</v>
@@ -6038,13 +5988,13 @@
       <c r="E230">
         <v>2.54</v>
       </c>
-      <c r="F230">
+      <c r="F230" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B231">
         <v>26</v>
@@ -6058,13 +6008,13 @@
       <c r="E231">
         <v>0.25</v>
       </c>
-      <c r="F231">
+      <c r="F231" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B232">
         <v>31</v>
@@ -6078,13 +6028,13 @@
       <c r="E232">
         <v>0.36599999999999999</v>
       </c>
-      <c r="F232">
+      <c r="F232" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B233">
         <v>18</v>
@@ -6098,13 +6048,13 @@
       <c r="E233">
         <v>0.17</v>
       </c>
-      <c r="F233">
+      <c r="F233" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B234">
         <v>27</v>
@@ -6118,13 +6068,13 @@
       <c r="E234">
         <v>0.313</v>
       </c>
-      <c r="F234">
+      <c r="F234" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B235">
         <v>470</v>
@@ -6138,13 +6088,13 @@
       <c r="E235">
         <v>2.33</v>
       </c>
-      <c r="F235">
+      <c r="F235" s="1">
         <v>14.3</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B236">
         <v>820</v>
@@ -6158,13 +6108,13 @@
       <c r="E236">
         <v>2.99</v>
       </c>
-      <c r="F236">
+      <c r="F236" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B237">
         <v>257</v>
@@ -6178,13 +6128,13 @@
       <c r="E237">
         <v>1.56</v>
       </c>
-      <c r="F237">
+      <c r="F237" s="1">
         <v>3.3</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B238">
         <v>27</v>
@@ -6198,13 +6148,13 @@
       <c r="E238">
         <v>0.77400000000000002</v>
       </c>
-      <c r="F238">
+      <c r="F238" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B239">
         <v>820</v>
@@ -6218,13 +6168,13 @@
       <c r="E239">
         <v>1.63</v>
       </c>
-      <c r="F239">
+      <c r="F239" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B240">
         <v>810</v>
@@ -6238,13 +6188,13 @@
       <c r="E240">
         <v>3.59</v>
       </c>
-      <c r="F240">
+      <c r="F240" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B241">
         <v>295</v>
@@ -6258,13 +6208,13 @@
       <c r="E241">
         <v>1.44</v>
       </c>
-      <c r="F241">
+      <c r="F241" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B242">
         <v>16</v>
@@ -6278,13 +6228,13 @@
       <c r="E242">
         <v>0.3</v>
       </c>
-      <c r="F242">
+      <c r="F242" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B243">
         <v>770</v>
@@ -6298,13 +6248,13 @@
       <c r="E243">
         <v>2.88</v>
       </c>
-      <c r="F243">
+      <c r="F243" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B244">
         <v>5</v>
@@ -6318,13 +6268,13 @@
       <c r="E244">
         <v>0.17</v>
       </c>
-      <c r="F244">
+      <c r="F244" s="1">
         <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B245">
         <v>730</v>
@@ -6338,13 +6288,13 @@
       <c r="E245">
         <v>2.88</v>
       </c>
-      <c r="F245">
+      <c r="F245" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B246">
         <v>660</v>
@@ -6358,13 +6308,13 @@
       <c r="E246">
         <v>1.97</v>
       </c>
-      <c r="F246">
+      <c r="F246" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B247">
         <v>127</v>
@@ -6378,13 +6328,13 @@
       <c r="E247">
         <v>1.25</v>
       </c>
-      <c r="F247">
+      <c r="F247" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B248">
         <v>18</v>
@@ -6398,13 +6348,13 @@
       <c r="E248">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F248">
+      <c r="F248" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B249">
         <v>678</v>
@@ -6418,13 +6368,13 @@
       <c r="E249">
         <v>2.57</v>
       </c>
-      <c r="F249">
+      <c r="F249" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B250">
         <v>80</v>
@@ -6438,13 +6388,13 @@
       <c r="E250">
         <v>0.92600000000000005</v>
       </c>
-      <c r="F250">
+      <c r="F250" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B251">
         <v>845</v>
@@ -6458,13 +6408,13 @@
       <c r="E251">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F251">
+      <c r="F251" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B252">
         <v>60</v>
@@ -6478,13 +6428,13 @@
       <c r="E252">
         <v>0.47499999999999998</v>
       </c>
-      <c r="F252">
+      <c r="F252" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B253">
         <v>74</v>
@@ -6498,13 +6448,13 @@
       <c r="E253">
         <v>1.36</v>
       </c>
-      <c r="F253">
+      <c r="F253" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B254">
         <v>176</v>
@@ -6518,13 +6468,13 @@
       <c r="E254">
         <v>1.34</v>
       </c>
-      <c r="F254">
+      <c r="F254" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B255">
         <v>448</v>
@@ -6538,13 +6488,13 @@
       <c r="E255">
         <v>2.34</v>
       </c>
-      <c r="F255">
+      <c r="F255" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B256">
         <v>827</v>
@@ -6558,13 +6508,13 @@
       <c r="E256">
         <v>3.1811209439999999</v>
       </c>
-      <c r="F256">
+      <c r="F256" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B257">
         <v>100</v>
@@ -6578,13 +6528,13 @@
       <c r="E257">
         <v>0.75800000000000001</v>
       </c>
-      <c r="F257">
+      <c r="F257" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B258">
         <v>203</v>
@@ -6598,13 +6548,13 @@
       <c r="E258">
         <v>1.99</v>
       </c>
-      <c r="F258">
+      <c r="F258" s="1">
         <v>0.81</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B259">
         <v>719</v>
@@ -6618,13 +6568,13 @@
       <c r="E259">
         <v>1.2546706910000001</v>
       </c>
-      <c r="F259">
+      <c r="F259" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B260">
         <v>48</v>
@@ -6638,13 +6588,13 @@
       <c r="E260">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F260">
+      <c r="F260" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B261">
         <v>690</v>
@@ -6658,13 +6608,13 @@
       <c r="E261">
         <v>1.9931666669999999</v>
       </c>
-      <c r="F261">
+      <c r="F261" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B262">
         <v>16</v>
@@ -6678,13 +6628,13 @@
       <c r="E262">
         <v>0.16500000000000001</v>
       </c>
-      <c r="F262">
+      <c r="F262" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B263">
         <v>564</v>
@@ -6698,13 +6648,13 @@
       <c r="E263">
         <v>2.27</v>
       </c>
-      <c r="F263">
+      <c r="F263" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B264">
         <v>755</v>
@@ -6718,13 +6668,13 @@
       <c r="E264">
         <v>0.28041095900000002</v>
       </c>
-      <c r="F264">
+      <c r="F264" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B265">
         <v>499</v>
@@ -6738,13 +6688,13 @@
       <c r="E265">
         <v>1.3784697509999999</v>
       </c>
-      <c r="F265">
+      <c r="F265" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B266">
         <v>169</v>
@@ -6758,13 +6708,10 @@
       <c r="E266">
         <v>0.438</v>
       </c>
-      <c r="F266" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B267">
         <v>462</v>
@@ -6778,13 +6725,10 @@
       <c r="E267">
         <v>2.09</v>
       </c>
-      <c r="F267" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B268">
         <v>167</v>
@@ -6798,13 +6742,13 @@
       <c r="E268">
         <v>0.73628503300000003</v>
       </c>
-      <c r="F268">
+      <c r="F268" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B269">
         <v>62</v>
@@ -6818,13 +6762,13 @@
       <c r="E269">
         <v>0.76045016099999996</v>
       </c>
-      <c r="F269">
+      <c r="F269" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B270">
         <v>8</v>
@@ -6838,13 +6782,13 @@
       <c r="E270">
         <v>0.18948035499999999</v>
       </c>
-      <c r="F270">
+      <c r="F270" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B271">
         <v>97</v>
@@ -6858,13 +6802,10 @@
       <c r="E271">
         <v>0.60499999999999998</v>
       </c>
-      <c r="F271" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B272">
         <v>44</v>
@@ -6878,13 +6819,10 @@
       <c r="E272">
         <v>1.56</v>
       </c>
-      <c r="F272" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B273">
         <v>39</v>
@@ -6898,13 +6836,13 @@
       <c r="E273">
         <v>0.41</v>
       </c>
-      <c r="F273">
+      <c r="F273" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B274">
         <v>39</v>
@@ -6918,13 +6856,13 @@
       <c r="E274">
         <v>0.65600000000000003</v>
       </c>
-      <c r="F274">
+      <c r="F274" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B275">
         <v>41</v>
@@ -6938,13 +6876,13 @@
       <c r="E275">
         <v>1.08</v>
       </c>
-      <c r="F275">
+      <c r="F275" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B276">
         <v>23</v>
@@ -6958,13 +6896,13 @@
       <c r="E276">
         <v>0.56049204100000005</v>
       </c>
-      <c r="F276">
+      <c r="F276" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B277">
         <v>595</v>
@@ -6978,13 +6916,13 @@
       <c r="E277">
         <v>0.51172741700000002</v>
       </c>
-      <c r="F277">
+      <c r="F277" s="1">
         <v>0.23</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B278">
         <v>42</v>
@@ -6998,13 +6936,13 @@
       <c r="E278">
         <v>0.44906721900000002</v>
       </c>
-      <c r="F278">
+      <c r="F278" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B279">
         <v>23</v>
@@ -7018,13 +6956,13 @@
       <c r="E279">
         <v>0.49265367300000001</v>
       </c>
-      <c r="F279">
+      <c r="F279" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B280">
         <v>15</v>
@@ -7038,13 +6976,13 @@
       <c r="E280">
         <v>0.17570407699999999</v>
       </c>
-      <c r="F280">
+      <c r="F280" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B281">
         <v>550</v>
@@ -7058,13 +6996,13 @@
       <c r="E281">
         <v>0.316208394</v>
       </c>
-      <c r="F281">
+      <c r="F281" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B282">
         <v>400</v>
@@ -7078,13 +7016,13 @@
       <c r="E282">
         <v>1.0876949739999999</v>
       </c>
-      <c r="F282">
+      <c r="F282" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B283">
         <v>562</v>
@@ -7098,13 +7036,13 @@
       <c r="E283">
         <v>0.27471590899999998</v>
       </c>
-      <c r="F283">
+      <c r="F283" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B284">
         <v>205</v>
@@ -7118,13 +7056,13 @@
       <c r="E284">
         <v>0.96436974799999997</v>
       </c>
-      <c r="F284">
+      <c r="F284" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B285">
         <v>240</v>
@@ -7138,13 +7076,13 @@
       <c r="E285">
         <v>0.493067847</v>
       </c>
-      <c r="F285">
+      <c r="F285" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B286">
         <v>125</v>
@@ -7158,13 +7096,13 @@
       <c r="E286">
         <v>0.34558204799999998</v>
       </c>
-      <c r="F286">
+      <c r="F286" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B287">
         <v>186</v>
@@ -7178,13 +7116,13 @@
       <c r="E287">
         <v>0.87939189200000001</v>
       </c>
-      <c r="F287">
+      <c r="F287" s="1">
         <v>0.13</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B288">
         <v>157</v>
@@ -7198,13 +7136,13 @@
       <c r="E288">
         <v>0.33818681299999998</v>
       </c>
-      <c r="F288">
+      <c r="F288" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B289">
         <v>341</v>
@@ -7218,13 +7156,13 @@
       <c r="E289">
         <v>0.94960317500000002</v>
       </c>
-      <c r="F289">
+      <c r="F289" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B290">
         <v>15</v>
@@ -7238,13 +7176,13 @@
       <c r="E290">
         <v>0.135675676</v>
       </c>
-      <c r="F290">
+      <c r="F290" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B291">
         <v>137</v>
@@ -7258,13 +7196,13 @@
       <c r="E291">
         <v>0.61685393300000002</v>
       </c>
-      <c r="F291">
+      <c r="F291" s="1">
         <v>0.17</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B292">
         <v>17</v>
@@ -7278,13 +7216,13 @@
       <c r="E292">
         <v>0.23132549499999999</v>
       </c>
-      <c r="F292">
+      <c r="F292" s="1">
         <v>0.05</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B293">
         <v>259</v>
@@ -7298,13 +7236,13 @@
       <c r="E293">
         <v>1.397717546</v>
       </c>
-      <c r="F293">
+      <c r="F293" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B294">
         <v>15</v>
@@ -7318,13 +7256,13 @@
       <c r="E294">
         <v>0.112273108</v>
       </c>
-      <c r="F294">
+      <c r="F294" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B295">
         <v>430</v>
@@ -7338,13 +7276,10 @@
       <c r="E295">
         <v>2.77</v>
       </c>
-      <c r="F295" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B296">
         <v>363</v>
@@ -7358,13 +7293,10 @@
       <c r="E296">
         <v>2.58</v>
       </c>
-      <c r="F296" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B297">
         <v>406</v>
@@ -7378,13 +7310,10 @@
       <c r="E297">
         <v>2.2200000000000002</v>
       </c>
-      <c r="F297" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B298">
         <v>240</v>
@@ -7398,13 +7327,13 @@
       <c r="E298">
         <v>0.582008996</v>
       </c>
-      <c r="F298">
+      <c r="F298" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B299">
         <v>127</v>
@@ -7418,13 +7347,13 @@
       <c r="E299">
         <v>0.45159500699999999</v>
       </c>
-      <c r="F299">
+      <c r="F299" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B300">
         <v>462</v>
@@ -7438,13 +7367,10 @@
       <c r="E300">
         <v>3.1</v>
       </c>
-      <c r="F300" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B301">
         <v>26</v>
@@ -7458,13 +7384,13 @@
       <c r="E301">
         <v>0.42390331199999998</v>
       </c>
-      <c r="F301">
+      <c r="F301" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B302">
         <v>258</v>
@@ -7478,13 +7404,13 @@
       <c r="E302">
         <v>1.342231076</v>
       </c>
-      <c r="F302">
+      <c r="F302" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B303">
         <v>255</v>
@@ -7498,13 +7424,10 @@
       <c r="E303">
         <v>1.32</v>
       </c>
-      <c r="F303" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B304">
         <v>457</v>
@@ -7518,13 +7441,10 @@
       <c r="E304">
         <v>2.82</v>
       </c>
-      <c r="F304" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B305">
         <v>154</v>
@@ -7538,13 +7458,13 @@
       <c r="E305">
         <v>0.30199999999999999</v>
       </c>
-      <c r="F305">
+      <c r="F305" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B306">
         <v>164</v>
@@ -7558,13 +7478,10 @@
       <c r="E306">
         <v>0.51400000000000001</v>
       </c>
-      <c r="F306" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B307">
         <v>17</v>
@@ -7578,13 +7495,13 @@
       <c r="E307">
         <v>0.20834419800000001</v>
       </c>
-      <c r="F307">
+      <c r="F307" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B308">
         <v>146</v>
@@ -7598,13 +7515,10 @@
       <c r="E308">
         <v>0.48799999999999999</v>
       </c>
-      <c r="F308" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B309">
         <v>198</v>
@@ -7618,13 +7532,10 @@
       <c r="E309">
         <v>0.80300000000000005</v>
       </c>
-      <c r="F309" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B310">
         <v>140</v>
@@ -7638,13 +7549,10 @@
       <c r="E310">
         <v>0.433</v>
       </c>
-      <c r="F310" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B311">
         <v>138</v>
@@ -7658,13 +7566,10 @@
       <c r="E311">
         <v>0.996</v>
       </c>
-      <c r="F311" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B312">
         <v>159</v>
@@ -7678,13 +7583,10 @@
       <c r="E312">
         <v>0.56799999999999995</v>
       </c>
-      <c r="F312" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B313">
         <v>25</v>
@@ -7698,13 +7600,13 @@
       <c r="E313">
         <v>0.24041379299999999</v>
       </c>
-      <c r="F313">
+      <c r="F313" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B314">
         <v>64</v>
@@ -7718,13 +7620,13 @@
       <c r="E314">
         <v>1.0495711839999999</v>
       </c>
-      <c r="F314">
+      <c r="F314" s="1">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B315">
         <v>298</v>
@@ -7738,13 +7640,10 @@
       <c r="E315">
         <v>2.4500000000000002</v>
       </c>
-      <c r="F315" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B316">
         <v>462</v>
@@ -7758,13 +7657,10 @@
       <c r="E316">
         <v>2.98</v>
       </c>
-      <c r="F316" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B317">
         <v>195</v>
@@ -7778,13 +7674,10 @@
       <c r="E317">
         <v>0.76200000000000001</v>
       </c>
-      <c r="F317" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B318">
         <v>202</v>
@@ -7798,13 +7691,10 @@
       <c r="E318">
         <v>1.52</v>
       </c>
-      <c r="F318" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B319">
         <v>91</v>
@@ -7818,13 +7708,10 @@
       <c r="E319">
         <v>1.24</v>
       </c>
-      <c r="F319" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B320">
         <v>18</v>
@@ -7838,13 +7725,13 @@
       <c r="E320">
         <v>0.23899999999999999</v>
       </c>
-      <c r="F320">
+      <c r="F320" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B321">
         <v>421</v>
@@ -7858,13 +7745,10 @@
       <c r="E321">
         <v>2.61</v>
       </c>
-      <c r="F321" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B322">
         <v>430</v>
@@ -7878,13 +7762,10 @@
       <c r="E322">
         <v>2.34</v>
       </c>
-      <c r="F322" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B323">
         <v>139</v>
@@ -7898,13 +7779,10 @@
       <c r="E323">
         <v>1.1299999999999999</v>
       </c>
-      <c r="F323" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B324">
         <v>387</v>
@@ -7918,13 +7796,10 @@
       <c r="E324">
         <v>2.41</v>
       </c>
-      <c r="F324" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B325">
         <v>161</v>
@@ -7938,13 +7813,10 @@
       <c r="E325">
         <v>1.3</v>
       </c>
-      <c r="F325" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B326">
         <v>23</v>
@@ -7958,13 +7830,13 @@
       <c r="E326">
         <v>0.31438547500000003</v>
       </c>
-      <c r="F326">
+      <c r="F326" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B327">
         <v>88</v>
@@ -7978,13 +7850,10 @@
       <c r="E327">
         <v>0.53300000000000003</v>
       </c>
-      <c r="F327" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B328">
         <v>44</v>
@@ -7998,13 +7867,10 @@
       <c r="E328">
         <v>0.745</v>
       </c>
-      <c r="F328" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B329">
         <v>288</v>
@@ -8018,13 +7884,10 @@
       <c r="E329">
         <v>2.04</v>
       </c>
-      <c r="F329" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B330">
         <v>104</v>
@@ -8038,13 +7901,10 @@
       <c r="E330">
         <v>0.76900000000000002</v>
       </c>
-      <c r="F330" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B331">
         <v>180</v>
@@ -8058,13 +7918,13 @@
       <c r="E331">
         <v>1.32</v>
       </c>
-      <c r="F331">
+      <c r="F331" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B332">
         <v>93</v>
@@ -8078,13 +7938,10 @@
       <c r="E332">
         <v>0.76800000000000002</v>
       </c>
-      <c r="F332" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B333">
         <v>453</v>
@@ -8098,13 +7955,10 @@
       <c r="E333">
         <v>2.36</v>
       </c>
-      <c r="F333" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B334">
         <v>34</v>
@@ -8118,13 +7972,10 @@
       <c r="E334">
         <v>0.84799999999999998</v>
       </c>
-      <c r="F334" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B335">
         <v>436</v>
@@ -8138,13 +7989,10 @@
       <c r="E335">
         <v>2.52</v>
       </c>
-      <c r="F335" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B336">
         <v>184</v>
@@ -8158,13 +8006,10 @@
       <c r="E336">
         <v>0.876</v>
       </c>
-      <c r="F336" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B337">
         <v>44</v>
@@ -8178,13 +8023,10 @@
       <c r="E337">
         <v>1.69</v>
       </c>
-      <c r="F337" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B338">
         <v>24</v>
@@ -8198,13 +8040,10 @@
       <c r="E338">
         <v>0.36499999999999999</v>
       </c>
-      <c r="F338" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B339">
         <v>29</v>
@@ -8218,13 +8057,10 @@
       <c r="E339">
         <v>0.70399999999999996</v>
       </c>
-      <c r="F339" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B340">
         <v>25</v>
@@ -8238,13 +8074,10 @@
       <c r="E340">
         <v>0.38100000000000001</v>
       </c>
-      <c r="F340" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B341">
         <v>29</v>
@@ -8258,13 +8091,10 @@
       <c r="E341">
         <v>0.33500000000000002</v>
       </c>
-      <c r="F341" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B342">
         <v>89</v>
@@ -8278,13 +8108,10 @@
       <c r="E342">
         <v>1.05</v>
       </c>
-      <c r="F342" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B343">
         <v>159</v>
@@ -8298,13 +8125,10 @@
       <c r="E343">
         <v>1.27</v>
       </c>
-      <c r="F343" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B344">
         <v>23</v>
@@ -8318,13 +8142,13 @@
       <c r="E344">
         <v>0.51</v>
       </c>
-      <c r="F344">
+      <c r="F344" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B345">
         <v>20</v>
@@ -8338,13 +8162,10 @@
       <c r="E345">
         <v>0.219</v>
       </c>
-      <c r="F345" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B346">
         <v>18</v>
@@ -8358,13 +8179,10 @@
       <c r="E346">
         <v>0.22</v>
       </c>
-      <c r="F346" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B347">
         <v>18</v>
@@ -8378,11 +8196,9 @@
       <c r="E347">
         <v>0.36399999999999999</v>
       </c>
-      <c r="F347" t="s">
-        <v>74</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>